--- a/Portfolio/Gemini_current_holdings.xlsx
+++ b/Portfolio/Gemini_current_holdings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuxiaodong/Library/Mobile Documents/com~apple~CloudDocs/GitHub/AI_stock_analysis_V2/Portfolio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69671A04-1FC3-7649-8154-0D4AB798D85D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA8F883-7A48-9843-B89A-95CF2C1B164C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34000" yWindow="1980" windowWidth="28040" windowHeight="17360" xr2:uid="{3F1C265F-C894-CA44-AFDA-40B11C7D779C}"/>
   </bookViews>
@@ -455,7 +455,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Portfolio/Gemini_current_holdings.xlsx
+++ b/Portfolio/Gemini_current_holdings.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuxiaodong/Library/Mobile Documents/com~apple~CloudDocs/GitHub/AI_stock_analysis_V2/Portfolio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\abc\AIinvest\频道--AI量化对决\Code\LIN-Quantitative-Stock-Selection\Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA8F883-7A48-9843-B89A-95CF2C1B164C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5E8D4E-97C7-4D57-A50E-F1A0DF3C40EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34000" yWindow="1980" windowWidth="28040" windowHeight="17360" xr2:uid="{3F1C265F-C894-CA44-AFDA-40B11C7D779C}"/>
+    <workbookView xWindow="21405" yWindow="3105" windowWidth="27345" windowHeight="18360" xr2:uid="{3F1C265F-C894-CA44-AFDA-40B11C7D779C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Cost basis</t>
   </si>
@@ -47,49 +45,53 @@
     <t>Ticker/Cash</t>
   </si>
   <si>
-    <t>IDXX</t>
-  </si>
-  <si>
-    <t>APH</t>
-  </si>
-  <si>
-    <t>UBER</t>
-  </si>
-  <si>
-    <t>NFLX</t>
+    <t>TOTAL VALUE</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>AVGO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RCL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LLY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>MSFT</t>
-  </si>
-  <si>
-    <t>TJX</t>
-  </si>
-  <si>
-    <t>COR</t>
-  </si>
-  <si>
-    <t>TOTAL VALUE</t>
-  </si>
-  <si>
-    <t>NVDA</t>
-  </si>
-  <si>
-    <t>NEM</t>
-  </si>
-  <si>
-    <t>Cash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KLAC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLTR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -120,7 +122,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -452,21 +454,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B69E9176-E15B-3B41-911A-FE13D76F4B54}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.875" customWidth="1"/>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
+    <col min="4" max="4" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -477,117 +479,109 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>576</v>
+      </c>
+      <c r="C2">
+        <v>477.38</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:D7" si="0">B2*C2</f>
+        <v>274970.88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>189</v>
+      </c>
+      <c r="C3">
+        <v>878</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>165942</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>440</v>
+      </c>
+      <c r="C4">
+        <v>228</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>100320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>802</v>
+      </c>
+      <c r="C5">
+        <v>260</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>208520</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
-        <v>1058</v>
-      </c>
-      <c r="C2">
-        <v>99.4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>447</v>
-      </c>
-      <c r="C3">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>201</v>
-      </c>
-      <c r="C4">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B6">
+        <v>1194</v>
+      </c>
+      <c r="C6">
+        <v>142</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>169548</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>133</v>
+      </c>
+      <c r="C7">
+        <v>811</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>107863</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>1186</v>
-      </c>
-      <c r="C5">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1357</v>
-      </c>
-      <c r="C6">
-        <v>82.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>1113</v>
-      </c>
-      <c r="C7">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>346</v>
-      </c>
-      <c r="C8">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>388</v>
-      </c>
-      <c r="C9">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>250</v>
-      </c>
-      <c r="C10">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11">
-        <v>5000</v>
+      <c r="D8">
+        <v>123119</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>